--- a/uploads/co_po_mapping.xlsx
+++ b/uploads/co_po_mapping.xlsx
@@ -517,19 +517,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -566,19 +566,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -664,19 +664,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
